--- a/biology/Botanique/Trebouxiophyceae/Trebouxiophyceae.xlsx
+++ b/biology/Botanique/Trebouxiophyceae/Trebouxiophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trebouxiophyceae est une classe d’algues de l'embranchement des Chlorophyta (un embranchement d'algues vertes) et du sous-embranchement des Chlorophytina.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette classe d'algues se présentent sous la forme de cellules nageuses avec une ou deux paires de flagelles, sans mastigonèmes. Les corps basaux de ses flagelles ont les caractéristiques suivantes :
 quatre radicelles microtubulaires en disposition cruciforme, comprenant une structure multicouche, et une racine plus petite, alternant entre deux ou plusieurs microtubules
@@ -520,7 +534,7 @@
 La division cellulaire (mitose) est soit « fermée » avec fuseau métacentrique, soit « semi-fermée », la cytokinèse montrant des phycoplastes (en) (microtubules). 
 La reproduction asexuée se fait par autospores ou zoospores. La reproduction sexuée a été observée.
 Cette algue présente des formes lichéniques et des formes libres.
-Cette algue s'alimente aussi bien par osmotrophie que par autotrophieAlgaeBase                                           (ref)[1].
+Cette algue s'alimente aussi bien par osmotrophie que par autotrophieAlgaeBase                                           (ref).
 </t>
         </is>
       </c>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,9 +591,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (19 août 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (19 août 2022) :
 Chlorellales Bold &amp; M.J.Wynne, 1978
 Microthamniales M.Melkonian, 1990
 Phyllosiphonales (d) F.E. Round, 1971
@@ -585,7 +603,7 @@
 Trebouxiales Friedl, 1995
 Trebouxiophyceae ordo incertae sedis
 Watanabeales Shuyin Li, Benwen Liu, Huan Zhu, Zhengyu Hu &amp; Guoxiang Liu, 2021
-Selon ITIS      (19 août 2022)[3] :
+Selon ITIS      (19 août 2022) :
 Chlorellales
 Microthamniales
 Phyllosiphonales
@@ -618,9 +636,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trebouxiophyceae Friedl, 1995[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trebouxiophyceae Friedl, 1995.
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Friedl, T. (1995). Inferring taxonomic positions and testing genus level assignments in coccoid green lichen algae: a phylogenetic analysis of 18S ribosomal RNA sequences from Dictyochloropsis reticulata and from members of the genus Myrmecia (Chlorophyta, Trebouxiophyceae cl. nov.). Journal of Phycology 31(4):  632-639, 1 fig.</t>
         </is>
